--- a/biology/Zoologie/Agastoschizomus_lucifer/Agastoschizomus_lucifer.xlsx
+++ b/biology/Zoologie/Agastoschizomus_lucifer/Agastoschizomus_lucifer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agastoschizomus lucifer est une espèce de schizomides de la famille des Protoschizomidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État de San Luis Potosí au Mexique[1],[2]. Elle se rencontre dans les grottes Sótano de la Tinaja, Sótano de la Matapalma et Sótano de Yerbaniz.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État de San Luis Potosí au Mexique,. Elle se rencontre dans les grottes Sótano de la Tinaja, Sótano de la Matapalma et Sótano de Yerbaniz.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 10,16 à 10,56 mm et les femelles de 10,61 à 11,24 mm[3].
-Le mâle décrit par Cokendolpher et Reddell en 1992 mesure 8,14 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 10,16 à 10,56 mm et les femelles de 10,61 à 11,24 mm.
+Le mâle décrit par Cokendolpher et Reddell en 1992 mesure 8,14 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rowland, 1971 : Agastoschizomus lucifer, a new genus and species of cavernicole schizontid (Arachnida, Schizomida) from Mexico. Bulletin of the Association for Mexican Cave Studies, no 4, p. 13-17.</t>
         </is>
